--- a/cases/SocialInsurance/TestData.xlsx
+++ b/cases/SocialInsurance/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\calculator\cases\SocialInsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616769A1-EE5F-4120-9FB0-A1E38DBCFC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F8280-48EA-4D43-BDAC-7075746B49E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>税前收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -381,7 +382,7 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +390,7 @@
         <v>100000</v>
       </c>
       <c r="B3">
-        <v>2566</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +398,75 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>10000000</v>
+        <v>10060.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2586</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55017E42-70B9-4927-8F2A-A81A25D533E4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000.0238890000001</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15689</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/cases/SocialInsurance/TestData.xlsx
+++ b/cases/SocialInsurance/TestData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\calculator\cases\SocialInsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F8280-48EA-4D43-BDAC-7075746B49E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61E9C82-3F5E-4A37-B715-5B847755EC3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="396" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>税前收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自定义社保基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55017E42-70B9-4927-8F2A-A81A25D533E4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,9 +469,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>15689</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.5</v>
       </c>
     </row>
@@ -474,4 +488,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF951C-0023-4750-886D-4735B9D6BA02}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99999.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34704E5-9376-479A-884D-E2E9BA7E91E6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>